--- a/Cronogramas.xlsx
+++ b/Cronogramas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GORE 2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GORE 2020\Repositorios\Gestion-ORFEI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E973391-CE6C-491E-9010-03599D6D686A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8EE15FF-AB8A-45F4-B866-E385473FEE23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45" yWindow="135" windowWidth="18615" windowHeight="20250" tabRatio="483" activeTab="3" xr2:uid="{FE7A8B72-E8EC-485F-AD9E-222BE66E5DE3}"/>
+    <workbookView xWindow="16800" yWindow="0" windowWidth="18345" windowHeight="20250" tabRatio="483" activeTab="3" xr2:uid="{FE7A8B72-E8EC-485F-AD9E-222BE66E5DE3}"/>
   </bookViews>
   <sheets>
     <sheet name="CEDIF" sheetId="1" r:id="rId1"/>
@@ -1927,6 +1927,93 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="15" fontId="3" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="3" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="3" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="3" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="3" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="3" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="3" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1940,93 +2027,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="3" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="3" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="3" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="3" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="3" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="3" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="3" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2400,99 +2400,99 @@
       <c r="B5" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="103" t="s">
+      <c r="C5" s="132" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="105" t="s">
+      <c r="D5" s="134" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="107" t="s">
+      <c r="E5" s="113" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="107" t="s">
+      <c r="F5" s="113" t="s">
         <v>98</v>
       </c>
-      <c r="G5" s="115" t="s">
+      <c r="G5" s="119" t="s">
         <v>94</v>
       </c>
-      <c r="H5" s="116"/>
-      <c r="I5" s="116"/>
-      <c r="J5" s="116"/>
-      <c r="K5" s="116"/>
-      <c r="L5" s="116"/>
-      <c r="M5" s="116"/>
-      <c r="N5" s="116"/>
-      <c r="O5" s="116"/>
-      <c r="P5" s="116"/>
-      <c r="Q5" s="116"/>
-      <c r="R5" s="116"/>
-      <c r="S5" s="116"/>
-      <c r="T5" s="116"/>
-      <c r="U5" s="116"/>
-      <c r="V5" s="116"/>
-      <c r="W5" s="116"/>
-      <c r="X5" s="116"/>
-      <c r="Y5" s="116"/>
-      <c r="Z5" s="116"/>
-      <c r="AA5" s="116"/>
-      <c r="AB5" s="116"/>
-      <c r="AC5" s="116"/>
-      <c r="AD5" s="116"/>
-      <c r="AE5" s="116"/>
-      <c r="AF5" s="116"/>
-      <c r="AG5" s="116"/>
-      <c r="AH5" s="116"/>
-      <c r="AI5" s="116"/>
-      <c r="AJ5" s="116"/>
-      <c r="AK5" s="116"/>
-      <c r="AL5" s="116"/>
-      <c r="AM5" s="116"/>
-      <c r="AN5" s="116"/>
-      <c r="AO5" s="116"/>
-      <c r="AP5" s="116"/>
-      <c r="AQ5" s="117"/>
-      <c r="AR5" s="124" t="s">
+      <c r="H5" s="120"/>
+      <c r="I5" s="120"/>
+      <c r="J5" s="120"/>
+      <c r="K5" s="120"/>
+      <c r="L5" s="120"/>
+      <c r="M5" s="120"/>
+      <c r="N5" s="120"/>
+      <c r="O5" s="120"/>
+      <c r="P5" s="120"/>
+      <c r="Q5" s="120"/>
+      <c r="R5" s="120"/>
+      <c r="S5" s="120"/>
+      <c r="T5" s="120"/>
+      <c r="U5" s="120"/>
+      <c r="V5" s="120"/>
+      <c r="W5" s="120"/>
+      <c r="X5" s="120"/>
+      <c r="Y5" s="120"/>
+      <c r="Z5" s="120"/>
+      <c r="AA5" s="120"/>
+      <c r="AB5" s="120"/>
+      <c r="AC5" s="120"/>
+      <c r="AD5" s="120"/>
+      <c r="AE5" s="120"/>
+      <c r="AF5" s="120"/>
+      <c r="AG5" s="120"/>
+      <c r="AH5" s="120"/>
+      <c r="AI5" s="120"/>
+      <c r="AJ5" s="120"/>
+      <c r="AK5" s="120"/>
+      <c r="AL5" s="120"/>
+      <c r="AM5" s="120"/>
+      <c r="AN5" s="120"/>
+      <c r="AO5" s="120"/>
+      <c r="AP5" s="120"/>
+      <c r="AQ5" s="121"/>
+      <c r="AR5" s="128" t="s">
         <v>95</v>
       </c>
-      <c r="AS5" s="125"/>
-      <c r="AT5" s="125"/>
-      <c r="AU5" s="125"/>
-      <c r="AV5" s="125"/>
-      <c r="AW5" s="125"/>
-      <c r="AX5" s="125"/>
-      <c r="AY5" s="125"/>
-      <c r="AZ5" s="125"/>
-      <c r="BA5" s="125"/>
-      <c r="BB5" s="125"/>
-      <c r="BC5" s="125"/>
-      <c r="BD5" s="125"/>
-      <c r="BE5" s="125"/>
-      <c r="BF5" s="125"/>
-      <c r="BG5" s="125"/>
-      <c r="BH5" s="125"/>
-      <c r="BI5" s="125"/>
-      <c r="BJ5" s="125"/>
-      <c r="BK5" s="125"/>
-      <c r="BL5" s="125"/>
-      <c r="BM5" s="125"/>
-      <c r="BN5" s="125"/>
-      <c r="BO5" s="125"/>
-      <c r="BP5" s="125"/>
-      <c r="BQ5" s="125"/>
-      <c r="BR5" s="125"/>
-      <c r="BS5" s="125"/>
-      <c r="BT5" s="125"/>
-      <c r="BU5" s="125"/>
-      <c r="BV5" s="126"/>
+      <c r="AS5" s="129"/>
+      <c r="AT5" s="129"/>
+      <c r="AU5" s="129"/>
+      <c r="AV5" s="129"/>
+      <c r="AW5" s="129"/>
+      <c r="AX5" s="129"/>
+      <c r="AY5" s="129"/>
+      <c r="AZ5" s="129"/>
+      <c r="BA5" s="129"/>
+      <c r="BB5" s="129"/>
+      <c r="BC5" s="129"/>
+      <c r="BD5" s="129"/>
+      <c r="BE5" s="129"/>
+      <c r="BF5" s="129"/>
+      <c r="BG5" s="129"/>
+      <c r="BH5" s="129"/>
+      <c r="BI5" s="129"/>
+      <c r="BJ5" s="129"/>
+      <c r="BK5" s="129"/>
+      <c r="BL5" s="129"/>
+      <c r="BM5" s="129"/>
+      <c r="BN5" s="129"/>
+      <c r="BO5" s="129"/>
+      <c r="BP5" s="129"/>
+      <c r="BQ5" s="129"/>
+      <c r="BR5" s="129"/>
+      <c r="BS5" s="129"/>
+      <c r="BT5" s="129"/>
+      <c r="BU5" s="129"/>
+      <c r="BV5" s="130"/>
     </row>
     <row r="6" spans="2:74" ht="15" x14ac:dyDescent="0.25">
       <c r="B6" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="C6" s="104"/>
-      <c r="D6" s="106"/>
-      <c r="E6" s="108"/>
-      <c r="F6" s="108"/>
+      <c r="C6" s="133"/>
+      <c r="D6" s="135"/>
+      <c r="E6" s="114"/>
+      <c r="F6" s="114"/>
       <c r="G6" s="17" t="s">
         <v>12</v>
       </c>
@@ -2699,13 +2699,13 @@
       </c>
     </row>
     <row r="7" spans="2:74" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="102" t="s">
+      <c r="B7" s="131" t="s">
         <v>93</v>
       </c>
-      <c r="C7" s="104"/>
-      <c r="D7" s="106"/>
-      <c r="E7" s="108"/>
-      <c r="F7" s="108"/>
+      <c r="C7" s="133"/>
+      <c r="D7" s="135"/>
+      <c r="E7" s="114"/>
+      <c r="F7" s="114"/>
       <c r="G7" s="21">
         <v>1</v>
       </c>
@@ -2912,79 +2912,79 @@
       </c>
     </row>
     <row r="8" spans="2:74" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="102"/>
-      <c r="C8" s="104"/>
-      <c r="D8" s="106"/>
-      <c r="E8" s="108"/>
-      <c r="F8" s="108"/>
-      <c r="G8" s="118"/>
-      <c r="H8" s="119"/>
-      <c r="I8" s="119"/>
-      <c r="J8" s="119"/>
-      <c r="K8" s="119"/>
-      <c r="L8" s="119"/>
-      <c r="M8" s="120"/>
-      <c r="N8" s="121"/>
-      <c r="O8" s="122"/>
-      <c r="P8" s="122"/>
-      <c r="Q8" s="122"/>
-      <c r="R8" s="122"/>
+      <c r="B8" s="131"/>
+      <c r="C8" s="133"/>
+      <c r="D8" s="135"/>
+      <c r="E8" s="114"/>
+      <c r="F8" s="114"/>
+      <c r="G8" s="122"/>
+      <c r="H8" s="123"/>
+      <c r="I8" s="123"/>
+      <c r="J8" s="123"/>
+      <c r="K8" s="123"/>
+      <c r="L8" s="123"/>
+      <c r="M8" s="124"/>
+      <c r="N8" s="125"/>
+      <c r="O8" s="126"/>
+      <c r="P8" s="126"/>
+      <c r="Q8" s="126"/>
+      <c r="R8" s="126"/>
       <c r="S8" s="25"/>
       <c r="T8" s="25"/>
-      <c r="U8" s="121"/>
-      <c r="V8" s="122"/>
-      <c r="W8" s="122"/>
-      <c r="X8" s="122"/>
-      <c r="Y8" s="122"/>
+      <c r="U8" s="125"/>
+      <c r="V8" s="126"/>
+      <c r="W8" s="126"/>
+      <c r="X8" s="126"/>
+      <c r="Y8" s="126"/>
       <c r="Z8" s="25"/>
       <c r="AA8" s="25"/>
-      <c r="AB8" s="121"/>
-      <c r="AC8" s="122"/>
-      <c r="AD8" s="122"/>
-      <c r="AE8" s="122"/>
-      <c r="AF8" s="122"/>
+      <c r="AB8" s="125"/>
+      <c r="AC8" s="126"/>
+      <c r="AD8" s="126"/>
+      <c r="AE8" s="126"/>
+      <c r="AF8" s="126"/>
       <c r="AG8" s="25"/>
       <c r="AH8" s="25"/>
-      <c r="AI8" s="123"/>
-      <c r="AJ8" s="123"/>
-      <c r="AK8" s="123"/>
-      <c r="AL8" s="123"/>
-      <c r="AM8" s="123"/>
+      <c r="AI8" s="127"/>
+      <c r="AJ8" s="127"/>
+      <c r="AK8" s="127"/>
+      <c r="AL8" s="127"/>
+      <c r="AM8" s="127"/>
       <c r="AN8" s="25"/>
       <c r="AO8" s="26"/>
-      <c r="AP8" s="111"/>
-      <c r="AQ8" s="112"/>
-      <c r="AR8" s="112"/>
-      <c r="AS8" s="112"/>
-      <c r="AT8" s="113"/>
+      <c r="AP8" s="115"/>
+      <c r="AQ8" s="116"/>
+      <c r="AR8" s="116"/>
+      <c r="AS8" s="116"/>
+      <c r="AT8" s="117"/>
       <c r="AU8" s="14"/>
       <c r="AV8" s="14"/>
-      <c r="AW8" s="111"/>
-      <c r="AX8" s="112"/>
-      <c r="AY8" s="112"/>
-      <c r="AZ8" s="112"/>
-      <c r="BA8" s="113"/>
+      <c r="AW8" s="115"/>
+      <c r="AX8" s="116"/>
+      <c r="AY8" s="116"/>
+      <c r="AZ8" s="116"/>
+      <c r="BA8" s="117"/>
       <c r="BB8" s="14"/>
       <c r="BC8" s="14"/>
-      <c r="BD8" s="111"/>
-      <c r="BE8" s="112"/>
-      <c r="BF8" s="112"/>
-      <c r="BG8" s="112"/>
-      <c r="BH8" s="113"/>
+      <c r="BD8" s="115"/>
+      <c r="BE8" s="116"/>
+      <c r="BF8" s="116"/>
+      <c r="BG8" s="116"/>
+      <c r="BH8" s="117"/>
       <c r="BI8" s="14"/>
       <c r="BJ8" s="14"/>
-      <c r="BK8" s="111"/>
-      <c r="BL8" s="112"/>
-      <c r="BM8" s="112"/>
-      <c r="BN8" s="112"/>
-      <c r="BO8" s="113"/>
+      <c r="BK8" s="115"/>
+      <c r="BL8" s="116"/>
+      <c r="BM8" s="116"/>
+      <c r="BN8" s="116"/>
+      <c r="BO8" s="117"/>
       <c r="BP8" s="14"/>
       <c r="BQ8" s="14"/>
-      <c r="BR8" s="111"/>
-      <c r="BS8" s="112"/>
-      <c r="BT8" s="112"/>
-      <c r="BU8" s="112"/>
-      <c r="BV8" s="114"/>
+      <c r="BR8" s="115"/>
+      <c r="BS8" s="116"/>
+      <c r="BT8" s="116"/>
+      <c r="BU8" s="116"/>
+      <c r="BV8" s="118"/>
     </row>
     <row r="9" spans="2:74" s="2" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="34"/>
@@ -3145,10 +3145,10 @@
       <c r="C11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="109" t="s">
+      <c r="D11" s="111" t="s">
         <v>223</v>
       </c>
-      <c r="E11" s="110"/>
+      <c r="E11" s="112"/>
       <c r="F11" s="27"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
@@ -3226,10 +3226,10 @@
       <c r="C12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="109" t="s">
+      <c r="D12" s="111" t="s">
         <v>223</v>
       </c>
-      <c r="E12" s="110"/>
+      <c r="E12" s="112"/>
       <c r="F12" s="27"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
@@ -3307,10 +3307,10 @@
       <c r="C13" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="109" t="s">
+      <c r="D13" s="111" t="s">
         <v>223</v>
       </c>
-      <c r="E13" s="110"/>
+      <c r="E13" s="112"/>
       <c r="F13" s="27"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
@@ -3388,10 +3388,10 @@
       <c r="C14" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="109" t="s">
+      <c r="D14" s="111" t="s">
         <v>223</v>
       </c>
-      <c r="E14" s="110"/>
+      <c r="E14" s="112"/>
       <c r="F14" s="27"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
@@ -3469,10 +3469,10 @@
       <c r="C15" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="109" t="s">
+      <c r="D15" s="111" t="s">
         <v>223</v>
       </c>
-      <c r="E15" s="110"/>
+      <c r="E15" s="112"/>
       <c r="F15" s="27"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
@@ -3550,10 +3550,10 @@
       <c r="C16" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="109" t="s">
+      <c r="D16" s="111" t="s">
         <v>223</v>
       </c>
-      <c r="E16" s="110"/>
+      <c r="E16" s="112"/>
       <c r="F16" s="27"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
@@ -3795,7 +3795,7 @@
       <c r="E19" s="93">
         <v>44011</v>
       </c>
-      <c r="F19" s="128" t="s">
+      <c r="F19" s="107" t="s">
         <v>101</v>
       </c>
       <c r="G19" s="30"/>
@@ -3880,7 +3880,7 @@
       <c r="E20" s="93">
         <v>44011</v>
       </c>
-      <c r="F20" s="128"/>
+      <c r="F20" s="107"/>
       <c r="G20" s="30"/>
       <c r="H20" s="30"/>
       <c r="I20" s="30"/>
@@ -3963,7 +3963,7 @@
       <c r="E21" s="93">
         <v>44012</v>
       </c>
-      <c r="F21" s="128"/>
+      <c r="F21" s="107"/>
       <c r="G21" s="30"/>
       <c r="H21" s="30"/>
       <c r="I21" s="30"/>
@@ -4046,7 +4046,7 @@
       <c r="E22" s="93">
         <v>44012</v>
       </c>
-      <c r="F22" s="128"/>
+      <c r="F22" s="107"/>
       <c r="G22" s="30"/>
       <c r="H22" s="30"/>
       <c r="I22" s="30"/>
@@ -4129,7 +4129,7 @@
       <c r="E23" s="93">
         <v>44012</v>
       </c>
-      <c r="F23" s="128"/>
+      <c r="F23" s="107"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
@@ -4212,7 +4212,7 @@
       <c r="E24" s="93">
         <v>44012</v>
       </c>
-      <c r="F24" s="128"/>
+      <c r="F24" s="107"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
@@ -4295,7 +4295,7 @@
       <c r="E25" s="93">
         <v>44012</v>
       </c>
-      <c r="F25" s="128"/>
+      <c r="F25" s="107"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
@@ -4378,7 +4378,7 @@
       <c r="E26" s="93">
         <v>44015</v>
       </c>
-      <c r="F26" s="128"/>
+      <c r="F26" s="107"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
@@ -4461,7 +4461,7 @@
       <c r="E27" s="93">
         <v>44015</v>
       </c>
-      <c r="F27" s="128"/>
+      <c r="F27" s="107"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
@@ -4544,7 +4544,7 @@
       <c r="E28" s="93">
         <v>44015</v>
       </c>
-      <c r="F28" s="128"/>
+      <c r="F28" s="107"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
@@ -4627,7 +4627,7 @@
       <c r="E29" s="93">
         <v>44015</v>
       </c>
-      <c r="F29" s="128"/>
+      <c r="F29" s="107"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
@@ -4710,7 +4710,7 @@
       <c r="E30" s="93">
         <v>44015</v>
       </c>
-      <c r="F30" s="129"/>
+      <c r="F30" s="110"/>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
@@ -4870,7 +4870,7 @@
       <c r="E32" s="93">
         <v>44018</v>
       </c>
-      <c r="F32" s="127" t="s">
+      <c r="F32" s="109" t="s">
         <v>101</v>
       </c>
       <c r="G32" s="4"/>
@@ -4955,7 +4955,7 @@
       <c r="E33" s="93">
         <v>44022</v>
       </c>
-      <c r="F33" s="128"/>
+      <c r="F33" s="107"/>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
@@ -5038,7 +5038,7 @@
       <c r="E34" s="93">
         <v>44022</v>
       </c>
-      <c r="F34" s="128"/>
+      <c r="F34" s="107"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
@@ -5121,7 +5121,7 @@
       <c r="E35" s="93">
         <v>44022</v>
       </c>
-      <c r="F35" s="128"/>
+      <c r="F35" s="107"/>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
@@ -5204,7 +5204,7 @@
       <c r="E36" s="93">
         <v>44022</v>
       </c>
-      <c r="F36" s="128"/>
+      <c r="F36" s="107"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
@@ -5287,7 +5287,7 @@
       <c r="E37" s="93">
         <v>44022</v>
       </c>
-      <c r="F37" s="128"/>
+      <c r="F37" s="107"/>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
@@ -5370,7 +5370,7 @@
       <c r="E38" s="93">
         <v>44028</v>
       </c>
-      <c r="F38" s="128"/>
+      <c r="F38" s="107"/>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
@@ -5453,7 +5453,7 @@
       <c r="E39" s="93">
         <v>44028</v>
       </c>
-      <c r="F39" s="128"/>
+      <c r="F39" s="107"/>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
@@ -5536,7 +5536,7 @@
       <c r="E40" s="93">
         <v>44028</v>
       </c>
-      <c r="F40" s="128"/>
+      <c r="F40" s="107"/>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
@@ -5619,7 +5619,7 @@
       <c r="E41" s="93">
         <v>44028</v>
       </c>
-      <c r="F41" s="128"/>
+      <c r="F41" s="107"/>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
@@ -5702,7 +5702,7 @@
       <c r="E42" s="93">
         <v>44028</v>
       </c>
-      <c r="F42" s="128"/>
+      <c r="F42" s="107"/>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
@@ -5785,7 +5785,7 @@
       <c r="E43" s="93">
         <v>44029</v>
       </c>
-      <c r="F43" s="129"/>
+      <c r="F43" s="110"/>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
@@ -6026,7 +6026,7 @@
       <c r="E46" s="93">
         <v>44029</v>
       </c>
-      <c r="F46" s="130" t="s">
+      <c r="F46" s="102" t="s">
         <v>226</v>
       </c>
       <c r="G46" s="4"/>
@@ -6111,7 +6111,7 @@
       <c r="E47" s="93">
         <v>44029</v>
       </c>
-      <c r="F47" s="130"/>
+      <c r="F47" s="102"/>
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
@@ -6194,7 +6194,7 @@
       <c r="E48" s="93">
         <v>44029</v>
       </c>
-      <c r="F48" s="130"/>
+      <c r="F48" s="102"/>
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
@@ -6277,7 +6277,7 @@
       <c r="E49" s="93">
         <v>44022</v>
       </c>
-      <c r="F49" s="130"/>
+      <c r="F49" s="102"/>
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
@@ -6360,7 +6360,7 @@
       <c r="E50" s="93">
         <v>44043</v>
       </c>
-      <c r="F50" s="131"/>
+      <c r="F50" s="103"/>
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
@@ -6443,7 +6443,7 @@
       <c r="E51" s="93">
         <v>44043</v>
       </c>
-      <c r="F51" s="127" t="s">
+      <c r="F51" s="109" t="s">
         <v>102</v>
       </c>
       <c r="G51" s="4"/>
@@ -6528,7 +6528,7 @@
       <c r="E52" s="93">
         <v>44043</v>
       </c>
-      <c r="F52" s="128"/>
+      <c r="F52" s="107"/>
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
@@ -6611,7 +6611,7 @@
       <c r="E53" s="93">
         <v>44043</v>
       </c>
-      <c r="F53" s="128"/>
+      <c r="F53" s="107"/>
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
@@ -6694,7 +6694,7 @@
       <c r="E54" s="93">
         <v>44043</v>
       </c>
-      <c r="F54" s="128"/>
+      <c r="F54" s="107"/>
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>
@@ -6771,7 +6771,7 @@
       <c r="C55" s="28"/>
       <c r="D55" s="93"/>
       <c r="E55" s="94"/>
-      <c r="F55" s="128" t="s">
+      <c r="F55" s="107" t="s">
         <v>103</v>
       </c>
       <c r="G55" s="4"/>
@@ -6856,7 +6856,7 @@
       <c r="E56" s="93">
         <v>44029</v>
       </c>
-      <c r="F56" s="128"/>
+      <c r="F56" s="107"/>
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
       <c r="I56" s="4"/>
@@ -6939,7 +6939,7 @@
       <c r="E57" s="93">
         <v>44029</v>
       </c>
-      <c r="F57" s="128"/>
+      <c r="F57" s="107"/>
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
       <c r="I57" s="4"/>
@@ -7022,7 +7022,7 @@
       <c r="E58" s="93">
         <v>44050</v>
       </c>
-      <c r="F58" s="128"/>
+      <c r="F58" s="107"/>
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
       <c r="I58" s="4"/>
@@ -7105,7 +7105,7 @@
       <c r="E59" s="93">
         <v>44050</v>
       </c>
-      <c r="F59" s="127" t="s">
+      <c r="F59" s="109" t="s">
         <v>102</v>
       </c>
       <c r="G59" s="4"/>
@@ -7190,7 +7190,7 @@
       <c r="E60" s="93">
         <v>44050</v>
       </c>
-      <c r="F60" s="128"/>
+      <c r="F60" s="107"/>
       <c r="G60" s="4"/>
       <c r="H60" s="4"/>
       <c r="I60" s="4"/>
@@ -7273,7 +7273,7 @@
       <c r="E61" s="93">
         <v>44050</v>
       </c>
-      <c r="F61" s="128"/>
+      <c r="F61" s="107"/>
       <c r="G61" s="4"/>
       <c r="H61" s="4"/>
       <c r="I61" s="4"/>
@@ -7356,7 +7356,7 @@
       <c r="E62" s="93">
         <v>44050</v>
       </c>
-      <c r="F62" s="128"/>
+      <c r="F62" s="107"/>
       <c r="G62" s="4"/>
       <c r="H62" s="4"/>
       <c r="I62" s="4"/>
@@ -7439,7 +7439,7 @@
       <c r="E63" s="93">
         <v>44050</v>
       </c>
-      <c r="F63" s="129"/>
+      <c r="F63" s="110"/>
       <c r="G63" s="4"/>
       <c r="H63" s="4"/>
       <c r="I63" s="4"/>
@@ -7607,7 +7607,7 @@
       <c r="E65" s="93">
         <v>44057</v>
       </c>
-      <c r="F65" s="132" t="s">
+      <c r="F65" s="104" t="s">
         <v>101</v>
       </c>
       <c r="G65" s="4"/>
@@ -7692,7 +7692,7 @@
       <c r="E66" s="93">
         <v>44057</v>
       </c>
-      <c r="F66" s="133"/>
+      <c r="F66" s="105"/>
       <c r="G66" s="4"/>
       <c r="H66" s="4"/>
       <c r="I66" s="4"/>
@@ -7775,7 +7775,7 @@
       <c r="E67" s="93">
         <v>44057</v>
       </c>
-      <c r="F67" s="133"/>
+      <c r="F67" s="105"/>
       <c r="G67" s="4"/>
       <c r="H67" s="4"/>
       <c r="I67" s="4"/>
@@ -7858,7 +7858,7 @@
       <c r="E68" s="93">
         <v>44057</v>
       </c>
-      <c r="F68" s="133"/>
+      <c r="F68" s="105"/>
       <c r="G68" s="4"/>
       <c r="H68" s="4"/>
       <c r="I68" s="4"/>
@@ -7941,7 +7941,7 @@
       <c r="E69" s="93">
         <v>44057</v>
       </c>
-      <c r="F69" s="133"/>
+      <c r="F69" s="105"/>
       <c r="G69" s="4"/>
       <c r="H69" s="4"/>
       <c r="I69" s="4"/>
@@ -8024,7 +8024,7 @@
       <c r="E70" s="93">
         <v>44057</v>
       </c>
-      <c r="F70" s="135"/>
+      <c r="F70" s="108"/>
       <c r="G70" s="4"/>
       <c r="H70" s="4"/>
       <c r="I70" s="4"/>
@@ -8431,7 +8431,7 @@
       <c r="E75" s="93">
         <v>44057</v>
       </c>
-      <c r="F75" s="132" t="s">
+      <c r="F75" s="104" t="s">
         <v>101</v>
       </c>
       <c r="G75" s="4"/>
@@ -8516,7 +8516,7 @@
       <c r="E76" s="93">
         <v>44057</v>
       </c>
-      <c r="F76" s="133"/>
+      <c r="F76" s="105"/>
       <c r="G76" s="4"/>
       <c r="H76" s="4"/>
       <c r="I76" s="4"/>
@@ -8593,7 +8593,7 @@
       <c r="C77" s="40"/>
       <c r="D77" s="95"/>
       <c r="E77" s="96"/>
-      <c r="F77" s="134"/>
+      <c r="F77" s="106"/>
       <c r="G77" s="41"/>
       <c r="H77" s="41"/>
       <c r="I77" s="41"/>
@@ -8978,17 +8978,14 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="F46:F50"/>
-    <mergeCell ref="F75:F77"/>
-    <mergeCell ref="F55:F58"/>
-    <mergeCell ref="F65:F70"/>
-    <mergeCell ref="F51:F54"/>
-    <mergeCell ref="F59:F63"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F5:F8"/>
-    <mergeCell ref="F32:F43"/>
-    <mergeCell ref="F19:F30"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C5:C8"/>
+    <mergeCell ref="D5:D8"/>
+    <mergeCell ref="E5:E8"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
     <mergeCell ref="BD8:BH8"/>
     <mergeCell ref="BK8:BO8"/>
     <mergeCell ref="BR8:BV8"/>
@@ -9001,14 +8998,17 @@
     <mergeCell ref="AR5:BV5"/>
     <mergeCell ref="AP8:AT8"/>
     <mergeCell ref="AW8:BA8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C5:C8"/>
-    <mergeCell ref="D5:D8"/>
-    <mergeCell ref="E5:E8"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F5:F8"/>
+    <mergeCell ref="F32:F43"/>
+    <mergeCell ref="F19:F30"/>
+    <mergeCell ref="F46:F50"/>
+    <mergeCell ref="F75:F77"/>
+    <mergeCell ref="F55:F58"/>
+    <mergeCell ref="F65:F70"/>
+    <mergeCell ref="F51:F54"/>
+    <mergeCell ref="F59:F63"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.28999999999999998" bottom="0.26" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="70" orientation="landscape" r:id="rId1"/>
@@ -10690,7 +10690,7 @@
   <dimension ref="B2:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="H36" sqref="H34:H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10750,14 +10750,14 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E9" s="73">
         <v>4500</v>
       </c>
       <c r="F9" s="73">
         <f t="shared" ref="F9:F13" si="0">E9*D9</f>
-        <v>13500</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
@@ -10768,14 +10768,14 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E10" s="73">
         <v>4500</v>
       </c>
       <c r="F10" s="73">
         <f t="shared" si="0"/>
-        <v>9000</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
@@ -10804,14 +10804,14 @@
         <v>1</v>
       </c>
       <c r="D12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E12" s="73">
         <v>4500</v>
       </c>
       <c r="F12" s="73">
         <f t="shared" si="0"/>
-        <v>13500</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
@@ -10854,7 +10854,7 @@
       <c r="E15" s="73"/>
       <c r="F15" s="75">
         <f>SUM(F8:F14)</f>
-        <v>67500</v>
+        <v>54000</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
@@ -10968,7 +10968,7 @@
       <c r="E23" s="73"/>
       <c r="F23" s="73">
         <f>F22+F15</f>
-        <v>106500</v>
+        <v>93000</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
@@ -10980,7 +10980,7 @@
       </c>
       <c r="F24" s="74">
         <f>C24*$F$23</f>
-        <v>5325</v>
+        <v>4650</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
@@ -10992,7 +10992,7 @@
       </c>
       <c r="F25" s="74">
         <f>C25*$F$23</f>
-        <v>8520</v>
+        <v>7440</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
@@ -11004,7 +11004,7 @@
       </c>
       <c r="F26" s="74">
         <f>C26*$F$23</f>
-        <v>19170</v>
+        <v>16740</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
@@ -11050,7 +11050,7 @@
       </c>
       <c r="E33" s="84">
         <f>F15</f>
-        <v>67500</v>
+        <v>54000</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
@@ -11074,7 +11074,7 @@
       <c r="D35" s="82"/>
       <c r="E35" s="85">
         <f>SUM(E33:E34)</f>
-        <v>106500</v>
+        <v>93000</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
@@ -11087,7 +11087,7 @@
       <c r="D36" s="81"/>
       <c r="E36" s="84">
         <f>F24</f>
-        <v>5325</v>
+        <v>4650</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
@@ -11100,7 +11100,7 @@
       <c r="D37" s="81"/>
       <c r="E37" s="84">
         <f>F25</f>
-        <v>8520</v>
+        <v>7440</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
@@ -11113,7 +11113,7 @@
       <c r="D38" s="81"/>
       <c r="E38" s="84">
         <f>F26</f>
-        <v>19170</v>
+        <v>16740</v>
       </c>
     </row>
     <row r="39" spans="2:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -11124,7 +11124,7 @@
       <c r="D39" s="80"/>
       <c r="E39" s="86">
         <f>SUM(E35:E38)</f>
-        <v>139515</v>
+        <v>121830</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.25">
